--- a/勝手に応援のサービス開発までの課題.xlsx
+++ b/勝手に応援のサービス開発までの課題.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakan\Google ドライブ\勝手に応援\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakan\Google ドライブ\勝手に応援\ouenProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3FF387-2C66-4EE0-8874-80E8FEB77FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AECA46-77A1-4219-B39A-51DC8D184E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{009B4B12-571A-4202-A110-CA8F7103D3CB}"/>
+    <workbookView xWindow="28680" yWindow="-7410" windowWidth="15990" windowHeight="24840" activeTab="1" xr2:uid="{009B4B12-571A-4202-A110-CA8F7103D3CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="全体" sheetId="1" r:id="rId1"/>
+    <sheet name="MVP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>親課題</t>
     <rPh sb="0" eb="1">
@@ -272,6 +272,298 @@
   </si>
   <si>
     <t>TwitterAPI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身バレ</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔は積極的に出さない。それで金集められるか？</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッキョクテキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ分析（改善）</t>
+    <rPh sb="3" eb="5">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子課題</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一人だと時間がかかるし、心折れるので仲間がほしい</t>
+    <rPh sb="0" eb="2">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ナカマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解決オプション</t>
+    <rPh sb="0" eb="2">
+      <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Node.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python Flux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python Django</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TwitterAPI申請</t>
+    <rPh sb="10" eb="12">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIの使い方を調べる</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力フォーム</t>
+    <rPh sb="0" eb="2">
+      <t>ニュリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表の表示</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思い出さないと</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これはだいぶ後で良い</t>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆MVPの作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手数料の設計</t>
+    <rPh sb="0" eb="3">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Udeyの講座速攻でやる</t>
+    <rPh sb="5" eb="7">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vercel使う？</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Next.jsとVercel使う</t>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSのDB使う？</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>My SQLをAWSに入れる</t>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これも急ぐべき。イメージ想起</t>
+    <rPh sb="3" eb="4">
+      <t>イソ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MVP(Minimum Viable Product)作るには</t>
+    <rPh sb="27" eb="28">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済：TwitterAPI取得</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運用方法</t>
+    <rPh sb="0" eb="4">
+      <t>ウンヨウホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動ツイート方法を見る</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一週間でなにか動くものを作る</t>
+    <rPh sb="0" eb="3">
+      <t>イッシュウカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストネットだからDBぜんぶブロックチェーンにしよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Next.jsとVercelのやつ試す</t>
+    <rPh sb="17" eb="18">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSは後回しで、ペラペラページ作る</t>
+    <rPh sb="4" eb="7">
+      <t>アトマ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBどうやって持つ？</t>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -324,12 +616,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,16 +951,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFF1F24-F6F6-4026-A46B-7E9199953321}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="35.5" customWidth="1"/>
-    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
@@ -671,8 +972,12 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -684,138 +989,407 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B8" s="2"/>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B9" s="2"/>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B10" s="2"/>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B12" s="2"/>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B14" s="2"/>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B15" s="2"/>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="2"/>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025D2BE9-37D9-4B16-8577-3720EA280713}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="4" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C30" t="s">
-        <v>26</v>
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
